--- a/Patient.xlsx
+++ b/Patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C1C4D-6A2C-49FC-9976-B1EA094FAC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C9E86-DEED-4F20-B7CE-B2237569BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32765A06-4061-4002-A97C-53274D729DA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32765A06-4061-4002-A97C-53274D729DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>patient_id</t>
   </si>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF71498-C07F-4F1D-83A7-B135BF907EA2}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J39:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,457 +528,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>106</v>
-      </c>
-      <c r="B8" s="3">
-        <v>22000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>107</v>
-      </c>
-      <c r="B9" s="3">
-        <v>11834</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>108</v>
-      </c>
-      <c r="B10" s="3">
-        <v>34226</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15305</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12" s="3">
-        <v>26519</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>111</v>
-      </c>
-      <c r="B13" s="3">
-        <v>16259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3">
-        <v>24154</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3">
-        <v>34046</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3">
-        <v>22494</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3">
-        <v>17148</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3">
-        <v>22600</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3">
-        <v>20632</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3">
-        <v>32559</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3">
-        <v>21878</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>120</v>
-      </c>
-      <c r="B22" s="3">
-        <v>19679</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>121</v>
-      </c>
-      <c r="B23" s="3">
-        <v>22719</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>122</v>
-      </c>
-      <c r="B24" s="3">
-        <v>19253</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>123</v>
-      </c>
-      <c r="B25" s="3">
-        <v>13890</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>124</v>
-      </c>
-      <c r="B26" s="3">
-        <v>28121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>125</v>
-      </c>
-      <c r="B27" s="3">
-        <v>29394</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>126</v>
-      </c>
-      <c r="B28" s="3">
-        <v>24495</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>127</v>
-      </c>
-      <c r="B29" s="3">
-        <v>12146</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>128</v>
-      </c>
-      <c r="B30" s="3">
-        <v>26586</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>129</v>
-      </c>
-      <c r="B31" s="3">
-        <v>32118</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>130</v>
-      </c>
-      <c r="B32" s="3">
-        <v>22143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>131</v>
-      </c>
-      <c r="B33" s="3">
-        <v>12589</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>132</v>
-      </c>
-      <c r="B34" s="3">
-        <v>31661</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>133</v>
-      </c>
-      <c r="B35" s="3">
-        <v>27222</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>134</v>
-      </c>
-      <c r="B36" s="3">
-        <v>32159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>135</v>
-      </c>
-      <c r="B37" s="3">
-        <v>33649</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>136</v>
-      </c>
-      <c r="B38" s="3">
-        <v>23230</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>137</v>
-      </c>
-      <c r="B39" s="3">
-        <v>23271</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>138</v>
-      </c>
-      <c r="B40" s="3">
-        <v>30273</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>139</v>
-      </c>
-      <c r="B41" s="3">
-        <v>25630</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>140</v>
-      </c>
-      <c r="B42" s="3">
-        <v>18829</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>141</v>
-      </c>
-      <c r="B43" s="3">
-        <v>32481</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>142</v>
-      </c>
-      <c r="B44" s="3">
-        <v>16424</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>143</v>
-      </c>
-      <c r="B45" s="3">
-        <v>13022</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>144</v>
-      </c>
-      <c r="B46" s="3">
-        <v>29024</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>145</v>
-      </c>
-      <c r="B47" s="3">
-        <v>29577</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>146</v>
-      </c>
-      <c r="B48" s="3">
-        <v>22781</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
